--- a/templates/quests.xlsx
+++ b/templates/quests.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato_takahito/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato_takahito/projects/seedtable-example/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="quest_groups" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -95,32 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017-01-05 12:00:00+0900</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みんなが仲良くなりますように</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パンケーキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>世界の裏側</t>
-    <rPh sb="0" eb="2">
-      <t>セカイノウラガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時は来た</t>
-    <rPh sb="0" eb="1">
-      <t>トキハキタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出会い</t>
     <rPh sb="0" eb="2">
       <t>デアイ</t>
@@ -132,20 +106,6 @@
     <rPh sb="0" eb="2">
       <t>サイショノクエスト</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>浅葱色の空</t>
-    <rPh sb="0" eb="3">
-      <t>アサギイロノ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ソラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぽいぽい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -515,27 +475,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -546,13 +492,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -600,118 +546,13 @@
         <v>出会い</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,quest_groups!$A$3:$B$100000,2)</f>
-        <v>出会い</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(B5,quest_groups!$A$3:$B$100000,2)</f>
-        <v>出会い</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2001</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(B6,quest_groups!$A$3:$B$100000,2)</f>
-        <v>みんなが仲良くなりますように</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2002</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,quest_groups!$A$3:$B$100000,2)</f>
-        <v>みんなが仲良くなりますように</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2003</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,quest_groups!$A$3:$B$100000,2)</f>
-        <v>みんなが仲良くなりますように</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
